--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhba</t>
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J2">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.3859284200861</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N2">
-        <v>32.3859284200861</v>
+        <v>97.698419</v>
       </c>
       <c r="O2">
-        <v>0.422429368074554</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P2">
-        <v>0.422429368074554</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q2">
-        <v>101.8036792864042</v>
+        <v>1.183583780045333</v>
       </c>
       <c r="R2">
-        <v>101.8036792864042</v>
+        <v>10.652254020408</v>
       </c>
       <c r="S2">
-        <v>0.3329161451334996</v>
+        <v>0.003421509769817733</v>
       </c>
       <c r="T2">
-        <v>0.3329161451334996</v>
+        <v>0.003421509769817733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J3">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5667109899196</v>
+        <v>40.85529333333333</v>
       </c>
       <c r="N3">
-        <v>40.5667109899196</v>
+        <v>122.56588</v>
       </c>
       <c r="O3">
-        <v>0.5291362923443786</v>
+        <v>0.5273775188114274</v>
       </c>
       <c r="P3">
-        <v>0.5291362923443786</v>
+        <v>0.5273775188114271</v>
       </c>
       <c r="Q3">
-        <v>127.5195937492609</v>
+        <v>1.484844780906666</v>
       </c>
       <c r="R3">
-        <v>127.5195937492609</v>
+        <v>13.36360302816</v>
       </c>
       <c r="S3">
-        <v>0.4170117610441164</v>
+        <v>0.004292396541916486</v>
       </c>
       <c r="T3">
-        <v>0.4170117610441164</v>
+        <v>0.004292396541916485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J4">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0395147597941582</v>
+        <v>0.03779266666666666</v>
       </c>
       <c r="N4">
-        <v>0.0395147597941582</v>
+        <v>0.113378</v>
       </c>
       <c r="O4">
-        <v>0.0005154150528879501</v>
+        <v>0.0004878438300104565</v>
       </c>
       <c r="P4">
-        <v>0.0005154150528879501</v>
+        <v>0.0004878438300104564</v>
       </c>
       <c r="Q4">
-        <v>0.1242128334560521</v>
+        <v>0.001373536677333333</v>
       </c>
       <c r="R4">
-        <v>0.1242128334560521</v>
+        <v>0.012361830096</v>
       </c>
       <c r="S4">
-        <v>0.0004061980665154688</v>
+        <v>3.970626532681096E-06</v>
       </c>
       <c r="T4">
-        <v>0.0004061980665154688</v>
+        <v>3.970626532681096E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J5">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.67374755881848</v>
+        <v>0.07240166666666666</v>
       </c>
       <c r="N5">
-        <v>3.67374755881848</v>
+        <v>0.217205</v>
       </c>
       <c r="O5">
-        <v>0.04791892452817939</v>
+        <v>0.0009345915353721286</v>
       </c>
       <c r="P5">
-        <v>0.04791892452817939</v>
+        <v>0.0009345915353721284</v>
       </c>
       <c r="Q5">
-        <v>11.54825680480438</v>
+        <v>0.002631366173333333</v>
       </c>
       <c r="R5">
-        <v>11.54825680480438</v>
+        <v>0.02368229556</v>
       </c>
       <c r="S5">
-        <v>0.03776485452604484</v>
+        <v>7.606766180661129E-06</v>
       </c>
       <c r="T5">
-        <v>0.03776485452604484</v>
+        <v>7.606766180661129E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.424457900028734</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
-        <v>0.424457900028734</v>
+        <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.1064163239005904</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J6">
-        <v>0.1064163239005904</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.3859284200861</v>
+        <v>3.937153333333333</v>
       </c>
       <c r="N6">
-        <v>32.3859284200861</v>
+        <v>11.81146</v>
       </c>
       <c r="O6">
-        <v>0.422429368074554</v>
+        <v>0.05082245130814891</v>
       </c>
       <c r="P6">
-        <v>0.422429368074554</v>
+        <v>0.05082245130814889</v>
       </c>
       <c r="Q6">
-        <v>13.74646316767064</v>
+        <v>0.1430919007466667</v>
       </c>
       <c r="R6">
-        <v>13.74646316767064</v>
+        <v>1.28782710672</v>
       </c>
       <c r="S6">
-        <v>0.04495338045814347</v>
+        <v>0.0004136507652781092</v>
       </c>
       <c r="T6">
-        <v>0.04495338045814347</v>
+        <v>0.0004136507652781092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H7">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J7">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.5667109899196</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N7">
-        <v>40.5667109899196</v>
+        <v>97.698419</v>
       </c>
       <c r="O7">
-        <v>0.5291362923443786</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P7">
-        <v>0.5291362923443786</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q7">
-        <v>17.21886095785384</v>
+        <v>105.2305871666039</v>
       </c>
       <c r="R7">
-        <v>17.21886095785384</v>
+        <v>947.0752844994349</v>
       </c>
       <c r="S7">
-        <v>0.0563087390736769</v>
+        <v>0.3042010951353197</v>
       </c>
       <c r="T7">
-        <v>0.0563087390736769</v>
+        <v>0.3042010951353197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H8">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J8">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0395147597941582</v>
+        <v>40.85529333333333</v>
       </c>
       <c r="N8">
-        <v>0.0395147597941582</v>
+        <v>122.56588</v>
       </c>
       <c r="O8">
-        <v>0.0005154150528879501</v>
+        <v>0.5273775188114274</v>
       </c>
       <c r="P8">
-        <v>0.0005154150528879501</v>
+        <v>0.5273775188114271</v>
       </c>
       <c r="Q8">
-        <v>0.01677235196236824</v>
+        <v>132.0152327029111</v>
       </c>
       <c r="R8">
-        <v>0.01677235196236824</v>
+        <v>1188.1370943262</v>
       </c>
       <c r="S8">
-        <v>5.484857521136403E-05</v>
+        <v>0.3816302792189931</v>
       </c>
       <c r="T8">
-        <v>5.484857521136403E-05</v>
+        <v>0.381630279218993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H9">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J9">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.67374755881848</v>
+        <v>0.03779266666666666</v>
       </c>
       <c r="N9">
-        <v>3.67374755881848</v>
+        <v>0.113378</v>
       </c>
       <c r="O9">
-        <v>0.04791892452817939</v>
+        <v>0.0004878438300104565</v>
       </c>
       <c r="P9">
-        <v>0.04791892452817939</v>
+        <v>0.0004878438300104564</v>
       </c>
       <c r="Q9">
-        <v>1.55935117405178</v>
+        <v>0.1221190028855555</v>
       </c>
       <c r="R9">
-        <v>1.55935117405178</v>
+        <v>1.09907102597</v>
       </c>
       <c r="S9">
-        <v>0.005099355793558685</v>
+        <v>0.0003530222097478596</v>
       </c>
       <c r="T9">
-        <v>0.005099355793558685</v>
+        <v>0.0003530222097478596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.42074204371612</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H10">
-        <v>0.42074204371612</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.1054847173292334</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J10">
-        <v>0.1054847173292334</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.3859284200861</v>
+        <v>0.07240166666666666</v>
       </c>
       <c r="N10">
-        <v>32.3859284200861</v>
+        <v>0.217205</v>
       </c>
       <c r="O10">
-        <v>0.422429368074554</v>
+        <v>0.0009345915353721286</v>
       </c>
       <c r="P10">
-        <v>0.422429368074554</v>
+        <v>0.0009345915353721284</v>
       </c>
       <c r="Q10">
-        <v>13.626121711111</v>
+        <v>0.2339506608138888</v>
       </c>
       <c r="R10">
-        <v>13.626121711111</v>
+        <v>2.105555947325</v>
       </c>
       <c r="S10">
-        <v>0.044559842482911</v>
+        <v>0.0006763057124687669</v>
       </c>
       <c r="T10">
-        <v>0.044559842482911</v>
+        <v>0.0006763057124687668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.42074204371612</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H11">
-        <v>0.42074204371612</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.1054847173292334</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J11">
-        <v>0.1054847173292334</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.5667109899196</v>
+        <v>3.937153333333333</v>
       </c>
       <c r="N11">
-        <v>40.5667109899196</v>
+        <v>11.81146</v>
       </c>
       <c r="O11">
-        <v>0.5291362923443786</v>
+        <v>0.05082245130814891</v>
       </c>
       <c r="P11">
-        <v>0.5291362923443786</v>
+        <v>0.05082245130814889</v>
       </c>
       <c r="Q11">
-        <v>17.06812088873996</v>
+        <v>12.72207763254444</v>
       </c>
       <c r="R11">
-        <v>17.06812088873996</v>
+        <v>114.4986986929</v>
       </c>
       <c r="S11">
-        <v>0.05581579222658536</v>
+        <v>0.03677704413156392</v>
       </c>
       <c r="T11">
-        <v>0.05581579222658536</v>
+        <v>0.03677704413156392</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H12">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I12">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J12">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0395147597941582</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N12">
-        <v>0.0395147597941582</v>
+        <v>97.698419</v>
       </c>
       <c r="O12">
-        <v>0.0005154150528879501</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P12">
-        <v>0.0005154150528879501</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q12">
-        <v>0.01662552079274569</v>
+        <v>17.51866173842633</v>
       </c>
       <c r="R12">
-        <v>0.01662552079274569</v>
+        <v>157.667955645837</v>
       </c>
       <c r="S12">
-        <v>5.436841116111727E-05</v>
+        <v>0.05064303288260844</v>
       </c>
       <c r="T12">
-        <v>5.436841116111727E-05</v>
+        <v>0.05064303288260844</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.537941</v>
+      </c>
+      <c r="H13">
+        <v>1.613823</v>
+      </c>
+      <c r="I13">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="J13">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>40.85529333333333</v>
+      </c>
+      <c r="N13">
+        <v>122.56588</v>
+      </c>
+      <c r="O13">
+        <v>0.5273775188114274</v>
+      </c>
+      <c r="P13">
+        <v>0.5273775188114271</v>
+      </c>
+      <c r="Q13">
+        <v>21.97773735102666</v>
+      </c>
+      <c r="R13">
+        <v>197.79963615924</v>
+      </c>
+      <c r="S13">
+        <v>0.06353335043349924</v>
+      </c>
+      <c r="T13">
+        <v>0.06353335043349922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.537941</v>
+      </c>
+      <c r="H14">
+        <v>1.613823</v>
+      </c>
+      <c r="I14">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="J14">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03779266666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.113378</v>
+      </c>
+      <c r="O14">
+        <v>0.0004878438300104565</v>
+      </c>
+      <c r="P14">
+        <v>0.0004878438300104564</v>
+      </c>
+      <c r="Q14">
+        <v>0.02033022489933333</v>
+      </c>
+      <c r="R14">
+        <v>0.182972024094</v>
+      </c>
+      <c r="S14">
+        <v>5.877071339470068E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.877071339470068E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.537941</v>
+      </c>
+      <c r="H15">
+        <v>1.613823</v>
+      </c>
+      <c r="I15">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="J15">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.07240166666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.217205</v>
+      </c>
+      <c r="O15">
+        <v>0.0009345915353721286</v>
+      </c>
+      <c r="P15">
+        <v>0.0009345915353721284</v>
+      </c>
+      <c r="Q15">
+        <v>0.03894782496833333</v>
+      </c>
+      <c r="R15">
+        <v>0.350530424715</v>
+      </c>
+      <c r="S15">
+        <v>0.0001125905625685403</v>
+      </c>
+      <c r="T15">
+        <v>0.0001125905625685403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.42074204371612</v>
-      </c>
-      <c r="H13">
-        <v>0.42074204371612</v>
-      </c>
-      <c r="I13">
-        <v>0.1054847173292334</v>
-      </c>
-      <c r="J13">
-        <v>0.1054847173292334</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.67374755881848</v>
-      </c>
-      <c r="N13">
-        <v>3.67374755881848</v>
-      </c>
-      <c r="O13">
-        <v>0.04791892452817939</v>
-      </c>
-      <c r="P13">
-        <v>0.04791892452817939</v>
-      </c>
-      <c r="Q13">
-        <v>1.545700055994394</v>
-      </c>
-      <c r="R13">
-        <v>1.545700055994394</v>
-      </c>
-      <c r="S13">
-        <v>0.00505471420857587</v>
-      </c>
-      <c r="T13">
-        <v>0.00505471420857587</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.537941</v>
+      </c>
+      <c r="H16">
+        <v>1.613823</v>
+      </c>
+      <c r="I16">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="J16">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.937153333333333</v>
+      </c>
+      <c r="N16">
+        <v>11.81146</v>
+      </c>
+      <c r="O16">
+        <v>0.05082245130814891</v>
+      </c>
+      <c r="P16">
+        <v>0.05082245130814889</v>
+      </c>
+      <c r="Q16">
+        <v>2.117956201286667</v>
+      </c>
+      <c r="R16">
+        <v>19.06160581158</v>
+      </c>
+      <c r="S16">
+        <v>0.006122598126911494</v>
+      </c>
+      <c r="T16">
+        <v>0.006122598126911493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.50239</v>
+      </c>
+      <c r="H17">
+        <v>1.50717</v>
+      </c>
+      <c r="I17">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J17">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>32.56613966666666</v>
+      </c>
+      <c r="N17">
+        <v>97.698419</v>
+      </c>
+      <c r="O17">
+        <v>0.4203775945150413</v>
+      </c>
+      <c r="P17">
+        <v>0.4203775945150412</v>
+      </c>
+      <c r="Q17">
+        <v>16.36090290713667</v>
+      </c>
+      <c r="R17">
+        <v>147.24812616423</v>
+      </c>
+      <c r="S17">
+        <v>0.0472961780007355</v>
+      </c>
+      <c r="T17">
+        <v>0.0472961780007355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.50239</v>
+      </c>
+      <c r="H18">
+        <v>1.50717</v>
+      </c>
+      <c r="I18">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J18">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>40.85529333333333</v>
+      </c>
+      <c r="N18">
+        <v>122.56588</v>
+      </c>
+      <c r="O18">
+        <v>0.5273775188114274</v>
+      </c>
+      <c r="P18">
+        <v>0.5273775188114271</v>
+      </c>
+      <c r="Q18">
+        <v>20.52529081773333</v>
+      </c>
+      <c r="R18">
+        <v>184.7276173596</v>
+      </c>
+      <c r="S18">
+        <v>0.05933461090395728</v>
+      </c>
+      <c r="T18">
+        <v>0.05933461090395727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.50239</v>
+      </c>
+      <c r="H19">
+        <v>1.50717</v>
+      </c>
+      <c r="I19">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J19">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03779266666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.113378</v>
+      </c>
+      <c r="O19">
+        <v>0.0004878438300104565</v>
+      </c>
+      <c r="P19">
+        <v>0.0004878438300104564</v>
+      </c>
+      <c r="Q19">
+        <v>0.01898665780666666</v>
+      </c>
+      <c r="R19">
+        <v>0.17087992026</v>
+      </c>
+      <c r="S19">
+        <v>5.488672308369073E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.488672308369073E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.50239</v>
+      </c>
+      <c r="H20">
+        <v>1.50717</v>
+      </c>
+      <c r="I20">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J20">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.07240166666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.217205</v>
+      </c>
+      <c r="O20">
+        <v>0.0009345915353721286</v>
+      </c>
+      <c r="P20">
+        <v>0.0009345915353721284</v>
+      </c>
+      <c r="Q20">
+        <v>0.03637387331666666</v>
+      </c>
+      <c r="R20">
+        <v>0.32736485985</v>
+      </c>
+      <c r="S20">
+        <v>0.0001051497705674209</v>
+      </c>
+      <c r="T20">
+        <v>0.0001051497705674209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.50239</v>
+      </c>
+      <c r="H21">
+        <v>1.50717</v>
+      </c>
+      <c r="I21">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J21">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.937153333333333</v>
+      </c>
+      <c r="N21">
+        <v>11.81146</v>
+      </c>
+      <c r="O21">
+        <v>0.05082245130814891</v>
+      </c>
+      <c r="P21">
+        <v>0.05082245130814889</v>
+      </c>
+      <c r="Q21">
+        <v>1.977986463133333</v>
+      </c>
+      <c r="R21">
+        <v>17.8018781682</v>
+      </c>
+      <c r="S21">
+        <v>0.005717972924501136</v>
+      </c>
+      <c r="T21">
+        <v>0.005717972924501135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.472129</v>
+      </c>
+      <c r="I22">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J22">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>32.56613966666666</v>
+      </c>
+      <c r="N22">
+        <v>97.698419</v>
+      </c>
+      <c r="O22">
+        <v>0.4203775945150413</v>
+      </c>
+      <c r="P22">
+        <v>0.4203775945150412</v>
+      </c>
+      <c r="Q22">
+        <v>5.125139651561222</v>
+      </c>
+      <c r="R22">
+        <v>46.126256864051</v>
+      </c>
+      <c r="S22">
+        <v>0.01481577872655988</v>
+      </c>
+      <c r="T22">
+        <v>0.01481577872655988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.472129</v>
+      </c>
+      <c r="I23">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J23">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>40.85529333333333</v>
+      </c>
+      <c r="N23">
+        <v>122.56588</v>
+      </c>
+      <c r="O23">
+        <v>0.5273775188114274</v>
+      </c>
+      <c r="P23">
+        <v>0.5273775188114271</v>
+      </c>
+      <c r="Q23">
+        <v>6.429656262057778</v>
+      </c>
+      <c r="R23">
+        <v>57.86690635852</v>
+      </c>
+      <c r="S23">
+        <v>0.0185868817130612</v>
+      </c>
+      <c r="T23">
+        <v>0.0185868817130612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.472129</v>
+      </c>
+      <c r="I24">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J24">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.03779266666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.113378</v>
+      </c>
+      <c r="O24">
+        <v>0.0004878438300104565</v>
+      </c>
+      <c r="P24">
+        <v>0.0004878438300104564</v>
+      </c>
+      <c r="Q24">
+        <v>0.005947671306888888</v>
+      </c>
+      <c r="R24">
+        <v>0.053529041762</v>
+      </c>
+      <c r="S24">
+        <v>1.719355725152426E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.719355725152426E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.472129</v>
+      </c>
+      <c r="I25">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J25">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.07240166666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.217205</v>
+      </c>
+      <c r="O25">
+        <v>0.0009345915353721286</v>
+      </c>
+      <c r="P25">
+        <v>0.0009345915353721284</v>
+      </c>
+      <c r="Q25">
+        <v>0.01139430882722222</v>
+      </c>
+      <c r="R25">
+        <v>0.102548779445</v>
+      </c>
+      <c r="S25">
+        <v>3.293872358673929E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.293872358673929E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.472129</v>
+      </c>
+      <c r="I26">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J26">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.937153333333333</v>
+      </c>
+      <c r="N26">
+        <v>11.81146</v>
+      </c>
+      <c r="O26">
+        <v>0.05082245130814891</v>
+      </c>
+      <c r="P26">
+        <v>0.05082245130814889</v>
+      </c>
+      <c r="Q26">
+        <v>0.6196147553711111</v>
+      </c>
+      <c r="R26">
+        <v>5.576532798340001</v>
+      </c>
+      <c r="S26">
+        <v>0.001791185359894237</v>
+      </c>
+      <c r="T26">
+        <v>0.001791185359894237</v>
       </c>
     </row>
   </sheetData>
